--- a/Manual Testing/Assignments/Module 2/HLR.xlsx
+++ b/Manual Testing/Assignments/Module 2/HLR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Manual Testing\Assignments\Module 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46556D3-EE93-4CCB-923F-7F08501F51CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A26140-B84D-411D-879A-EF04E6A11BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Whatsaap" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Buy product" sheetId="12" r:id="rId10"/>
     <sheet name="Whatsapp pay" sheetId="13" r:id="rId11"/>
     <sheet name="Whatsapp group " sheetId="14" r:id="rId12"/>
-    <sheet name="Sheet3" sheetId="17" r:id="rId13"/>
+    <sheet name="instagram" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="170">
   <si>
     <t>Test scenario off whatsapp</t>
   </si>
@@ -518,6 +518,54 @@
   </si>
   <si>
     <t>Instagram first page</t>
+  </si>
+  <si>
+    <t>error massege 
+Sorry, your password was incorrect. Please double-check your password.</t>
+  </si>
+  <si>
+    <t>1. E-mail:- sonaram@gmai.com
+2. Password:-Sonaram@8980</t>
+  </si>
+  <si>
+    <t>filling incorrect User name and incorrect password</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>filling incorrect User name and correct password</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>1. E-mail:- sonaram@gmai.com
+2. Password:-Sonaram@8989</t>
+  </si>
+  <si>
+    <t>1. mo. No :-8980868850
+2. Password:-Sonaram@8989</t>
+  </si>
+  <si>
+    <t>1. mo. No :-8980868840
+2. Password:-Sonaram@8980</t>
+  </si>
+  <si>
+    <t>1. mo. No :-8980868850
+2. Password:-Sonaram@888</t>
+  </si>
+  <si>
+    <t>1. user name :-sonaram_12
+2. Password:-Sonaram@888</t>
+  </si>
+  <si>
+    <t>1. user name :-sonaram_89
+2. Password:-Sonaram@8980</t>
+  </si>
+  <si>
+    <t>login should not be done
+error message should be generated.</t>
   </si>
 </sst>
 </file>
@@ -547,26 +595,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -578,17 +618,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -602,18 +638,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -906,10 +938,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1265,234 +1297,351 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF108A5-DE9D-435F-9C56-3B73E2DEAD53}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="38.88671875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="27.77734375" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="10.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="38.88671875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="27.77734375" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="D4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="D5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="D6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="D7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="D8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="D9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="C10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G12" s="4" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H10:I10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1512,10 +1661,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1628,10 +1777,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2177,10 +2326,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2293,10 +2442,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/Manual Testing/Assignments/Module 2/HLR.xlsx
+++ b/Manual Testing/Assignments/Module 2/HLR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Manual Testing\Assignments\Module 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A26140-B84D-411D-879A-EF04E6A11BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479D75EC-A30C-43FC-9808-31A80407A665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,11 +638,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -938,10 +938,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1299,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF108A5-DE9D-435F-9C56-3B73E2DEAD53}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1452,7 +1452,7 @@
       <c r="F5" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>169</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -1481,7 +1481,7 @@
       <c r="F6" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>169</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -1510,7 +1510,7 @@
       <c r="F7" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>169</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -1539,7 +1539,7 @@
       <c r="F8" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>169</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -1568,7 +1568,7 @@
       <c r="F9" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>169</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -1597,7 +1597,7 @@
       <c r="F10" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>169</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -1626,7 +1626,7 @@
       <c r="F11" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>169</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -1661,10 +1661,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1777,10 +1777,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2326,10 +2326,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2442,10 +2442,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
